--- a/src/main/java/TestData/data.xlsx
+++ b/src/main/java/TestData/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\impac\Desktop\aws\PCM_Project_Automation\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B4325-03CD-4D7D-8825-9DE623FE1FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390BA93-C847-4D2D-8E52-71E03E377739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>FullName</t>
   </si>
@@ -108,7 +108,28 @@
     <t>Help Aahaan raise funds</t>
   </si>
   <si>
-    <t>passed</t>
+    <t>Testeight</t>
+  </si>
+  <si>
+    <t>test8@gmail.com</t>
+  </si>
+  <si>
+    <t>Testnine</t>
+  </si>
+  <si>
+    <t>test9@gmail.com</t>
+  </si>
+  <si>
+    <t>Hydrabad</t>
+  </si>
+  <si>
+    <t>Testten</t>
+  </si>
+  <si>
+    <t>test10@gmail.com</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -447,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +480,7 @@
     <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,7 +520,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +540,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,7 +560,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,7 +600,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,7 +620,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,7 +640,67 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1234567890</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1234567890</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>1234567890</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -631,8 +712,11 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{78E3084E-C946-4E16-9BCB-FD5DF725DDAB}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{67633E85-596A-409E-8275-DC0C86EC6B0B}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{B58EE3A6-EA2D-4F56-BAD9-1E50A341998C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{D777A6B5-23E4-4B05-B099-84A605AA18C2}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{35D2AFF4-0615-498E-A7EC-051150D64E66}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{3F3BB7DF-6FDA-4E56-865A-9E10C9F860C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>